--- a/docs/New_files/Livelli e Qualifiche.xlsx
+++ b/docs/New_files/Livelli e Qualifiche.xlsx
@@ -13,140 +13,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t/>
   </si>
   <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>Nuovo livello (dal 2021)</t>
+  </si>
+  <si>
+    <t>Vecchia codifica</t>
+  </si>
+  <si>
     <t>DESC (normalizzata)</t>
   </si>
   <si>
-    <t>ORD</t>
-  </si>
-  <si>
-    <t>Vecchia codifica</t>
-  </si>
-  <si>
-    <t>Nuovo livello (dal 2021)</t>
-  </si>
-  <si>
     <t>Descrizione breve</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>DIR</t>
+  </si>
+  <si>
     <t>Dirigente</t>
   </si>
   <si>
-    <t>DIR</t>
-  </si>
-  <si>
-    <t>Direzione aziendale; autonomia strategica e responsabilit- sui risultati complessivi. (CCNL distinto). (federmanager.it)</t>
-  </si>
-  <si>
-    <t>Quadro / Direttore</t>
+    <t>Direzione aziendale; autonomia strategica e responsabilità sui risultati complessivi. (CCNL distinto). (federmanager.it)</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>Guida di funzioni/aree; autonomia decisionale su processi e innovazione.</t>
-  </si>
-  <si>
-    <t>Responsabile di team/area</t>
+    <t>|Direttivo (Quadro / Gestione del cambiamento)</t>
+  </si>
+  <si>
+    <t>Guida di funzioni/aree e impulso all’innovazione; ampia autonomia e responsabilità su processi e risultati.</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>Coordina team/progetti e obiettivi operativi, senza le deleghe tipiche del quadro.</t>
-  </si>
-  <si>
-    <t>Impiegato direttivo</t>
+    <t>|Direttivo (Responsabile di team/processi)</t>
+  </si>
+  <si>
+    <t>Coordinamento di team/processi e responsabilità di risultati con ampia autonomia operativa; non quadro. (Direzione Lavoro)</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>Figura con funzioni gerarchiche o autonomia tecnico-organizzativa; escluso dallo straordinario ex norme ?direttivi?.</t>
-  </si>
-  <si>
-    <t>Specialista (impiegatizio/tecnico)</t>
+    <t>|Direttivo (Tecnico/organizzativo)</t>
+  </si>
+  <si>
+    <t>Autonomia tecnico-organizzativa su attività complesse; presidio di obiettivi e risorse, senza perimetro da quadro. (Direzione Lavoro)</t>
+  </si>
+  <si>
+    <t>B1</t>
   </si>
   <si>
     <t>5S</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>Specialista verticale; presidio di procedure critiche, possibile guida operativa.</t>
-  </si>
-  <si>
-    <t>Impiegato qualificato</t>
+    <t>Tecnico Specializzato</t>
+  </si>
+  <si>
+    <t>Elevato know-how; presidio di procedure critiche e supporto/guida operativa non gerarchica.</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>Attivita qualificate con autonomia ordinaria su pratiche/strumenti.</t>
-  </si>
-  <si>
-    <t>Impiegato esecutivo</t>
+    <t>Tecnico qualificato</t>
+  </si>
+  <si>
+    <t>Attività qualificate con autonomia ordinaria (es. set-up, diagnosi base, controlli di processo).</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>Attivita esecutive strutturate; applicazione di procedure con supervisione.</t>
+    <t>Tecnico esecutivo</t>
+  </si>
+  <si>
+    <t>Esecuzione strutturata di procedure/standard con supervisione e responsabilità limitate.</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>3S</t>
+  </si>
+  <si>
+    <t>Operativo specializzato</t>
+  </si>
+  <si>
+    <t>Conduzione/attrezzaggio di impianti o lavorazioni complesse; diagnosi e ottimizzazione su perimetro definito.</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Operativo qualificato</t>
+  </si>
+  <si>
+    <t>Lavorazioni qualificate con strumenti/attrezzature comuni; autonomia limitata.</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Operativo base</t>
+  </si>
+  <si>
+    <t>Attività elementari o semi-qualificate con addestramento breve; ex 1ª categoria riclassificata in D1 dal 1/6/2021.</t>
+  </si>
+  <si>
+    <t>Appr.</t>
   </si>
   <si>
     <t>Apprendista impiegato</t>
   </si>
   <si>
-    <t>Apprendistato in ruoli impiegatizi con piano formativo; sbocco tipico da C2 a B2 in base al profilo. (lexplain.it)</t>
-  </si>
-  <si>
-    <t>Operaio specializzato</t>
-  </si>
-  <si>
-    <t>3S</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Conduzione/attrezzaggio impianti e lavorazioni complesse; controllo qualit-.</t>
-  </si>
-  <si>
-    <t>Operaio qualificato</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>Lavorazioni qualificate con attrezzature comuni; autonomia limitata.</t>
-  </si>
-  <si>
-    <t>Operaio comune</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Operazioni semplici con addestramento breve.</t>
-  </si>
-  <si>
-    <t>Operaio generico</t>
-  </si>
-  <si>
-    <t>Mansioni elementari/di supporto; la 1¦ categoria è stata eliminata e confluisce in D1.</t>
+    <t>Percorso formativo per ruoli tecnico-gestionali; retribuzione percentuale del livello di sbocco (tipicamente 85% prima metà, 90% seconda; alcuni schemi prevedono 85/90/95 su 24–36 mesi).</t>
   </si>
   <si>
     <t>Apprendista operaio</t>
   </si>
   <si>
-    <t>Apprendistato in ruoli operai; progressione fino a D2 ? C1 secondo mestiere e percorso. (lexplain.it)</t>
+    <t>Percorso formativo per ruoli operativi/tecnici di officina; valgono le stesse percentuali e regole di progressione dell’apprendistato.</t>
   </si>
 </sst>
 </file>
@@ -154,7 +152,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="25">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -170,23 +168,227 @@
     </font>
     <font>
       <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="EBC700"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="EBC700"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="EBC700"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="EBC700"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="EBC700"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="EBC700"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="12.0"/>
+      <color rgb="237F2E"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <sz val="10.0"/>
       <color rgb="000000"/>
       <u val="none"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
-      <u val="none"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="61058B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="61058B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="9210AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="9210AD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F87E7D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F87E7D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE1AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFF3DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3DF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFEE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEE6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -201,16 +403,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="left" vertical="top" wrapText="false" indent="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="left" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="left" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="left" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="left" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="left" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="top" wrapText="false" indent="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center" vertical="top" wrapText="false" indent="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -221,17 +507,18 @@
   <sheetPr>
     <outlinePr summaryBelow="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.3125" customWidth="true"/>
-    <col min="2" max="2" width="23.4375" customWidth="true"/>
-    <col min="3" max="3" width="18.125" customWidth="true"/>
-    <col min="4" max="4" width="23.4375" customWidth="true"/>
-    <col min="5" max="5" width="110.625" customWidth="true"/>
+    <col min="1" max="1" width="9.0625" customWidth="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
+    <col min="4" max="4" width="65.78125" customWidth="true"/>
+    <col min="5" max="5" width="156.25" customWidth="true"/>
+    <col min="6" max="6" width="41.40625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -250,227 +537,225 @@
       <c r="E1" t="s" s="1">
         <v>5</v>
       </c>
+      <c r="F1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" hidden="false">
-      <c r="A2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n" s="5">
+      <c r="A2" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="B2" t="s" s="3">
         <v>7</v>
       </c>
+      <c r="C2" t="s" s="3">
+        <v>7</v>
+      </c>
       <c r="D2" t="s" s="5">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s" s="5">
         <v>8</v>
       </c>
+      <c r="E2" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" hidden="false">
-      <c r="A3" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="B3" t="n" s="5">
+      <c r="A3" t="n" s="9">
         <v>2.0</v>
       </c>
-      <c r="C3" t="n" s="5">
+      <c r="B3" t="s" s="9">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n" s="9">
         <v>8.0</v>
       </c>
-      <c r="D3" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="5">
+      <c r="D3" t="s" s="11">
         <v>11</v>
       </c>
+      <c r="E3" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" hidden="false">
-      <c r="A4" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="B4" t="n" s="5">
+      <c r="A4" t="n" s="15">
         <v>3.0</v>
       </c>
-      <c r="C4" t="n" s="5">
+      <c r="B4" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n" s="15">
         <v>7.0</v>
       </c>
-      <c r="D4" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="5">
+      <c r="D4" t="s" s="17">
         <v>14</v>
       </c>
+      <c r="E4" t="s" s="19">
+        <v>15</v>
+      </c>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" hidden="false">
-      <c r="A5" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="B5" t="n" s="5">
+      <c r="A5" t="n" s="21">
         <v>4.0</v>
       </c>
-      <c r="C5" t="n" s="5">
+      <c r="B5" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n" s="21">
         <v>6.0</v>
       </c>
-      <c r="D5" t="s" s="5">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="5">
+      <c r="D5" t="s" s="23">
         <v>17</v>
       </c>
+      <c r="E5" t="s" s="25">
+        <v>18</v>
+      </c>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" hidden="false">
-      <c r="A6" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="B6" t="n" s="5">
+      <c r="A6" t="n" s="27">
         <v>5.0</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="B6" t="s" s="27">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="C6" t="s" s="27">
         <v>20</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="D6" t="s" s="29">
         <v>21</v>
       </c>
+      <c r="E6" t="s" s="31">
+        <v>22</v>
+      </c>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" hidden="false">
-      <c r="A7" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="B7" t="n" s="5">
+      <c r="A7" t="n" s="33">
         <v>6.0</v>
       </c>
-      <c r="C7" t="n" s="5">
+      <c r="B7" t="s" s="33">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n" s="33">
         <v>5.0</v>
       </c>
-      <c r="D7" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s" s="5">
+      <c r="D7" t="s" s="35">
         <v>24</v>
       </c>
+      <c r="E7" t="s" s="37">
+        <v>25</v>
+      </c>
+      <c r="F7" s="37"/>
     </row>
     <row r="8" hidden="false">
-      <c r="A8" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="B8" t="n" s="5">
+      <c r="A8" t="n" s="39">
         <v>7.0</v>
       </c>
-      <c r="C8" t="n" s="5">
+      <c r="B8" t="s" s="39">
+        <v>26</v>
+      </c>
+      <c r="C8" t="n" s="39">
         <v>4.0</v>
       </c>
-      <c r="D8" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s" s="5">
+      <c r="D8" t="s" s="41">
         <v>27</v>
       </c>
+      <c r="E8" t="s" s="43">
+        <v>28</v>
+      </c>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" hidden="false">
-      <c r="A9" t="s" s="3">
-        <v>28</v>
-      </c>
-      <c r="B9" t="n" s="5">
+      <c r="A9" t="n" s="33">
         <v>8.0</v>
       </c>
-      <c r="C9" t="n" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="D9" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s" s="5">
+      <c r="B9" t="s" s="33">
         <v>29</v>
       </c>
+      <c r="C9" t="s" s="33">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="35">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s" s="37">
+        <v>32</v>
+      </c>
+      <c r="F9" s="37"/>
     </row>
     <row r="10" hidden="false">
-      <c r="A10" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="B10" t="n" s="5">
+      <c r="A10" t="n" s="39">
         <v>9.0</v>
       </c>
-      <c r="C10" t="s" s="5">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s" s="5">
+      <c r="B10" t="s" s="39">
         <v>33</v>
       </c>
+      <c r="C10" t="n" s="39">
+        <v>3.0</v>
+      </c>
+      <c r="D10" t="s" s="41">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s" s="43">
+        <v>35</v>
+      </c>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" hidden="false">
-      <c r="A11" t="s" s="3">
-        <v>34</v>
-      </c>
-      <c r="B11" t="n" s="5">
+      <c r="A11" t="n" s="39">
         <v>10.0</v>
       </c>
-      <c r="C11" t="n" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="D11" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s" s="5">
+      <c r="B11" t="s" s="39">
         <v>36</v>
       </c>
+      <c r="C11" t="n" s="39">
+        <v>2.0</v>
+      </c>
+      <c r="D11" t="s" s="41">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s" s="43">
+        <v>38</v>
+      </c>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" hidden="false">
-      <c r="A12" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="B12" t="n" s="5">
+      <c r="A12" t="n" s="39">
         <v>11.0</v>
       </c>
-      <c r="C12" t="n" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s" s="5">
+      <c r="B12" t="s" s="39">
         <v>39</v>
       </c>
+      <c r="C12" t="s" s="39">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s" s="45">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s" s="43">
+        <v>41</v>
+      </c>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" hidden="false">
-      <c r="A13" t="s" s="3">
-        <v>40</v>
-      </c>
-      <c r="B13" t="n" s="5">
+      <c r="A13" t="n" s="47">
         <v>12.0</v>
       </c>
-      <c r="C13" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D13" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s" s="5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" hidden="false">
-      <c r="A14" t="s" s="3">
+      <c r="B13" t="s" s="39">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s" s="39">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s" s="45">
         <v>42</v>
       </c>
-      <c r="B14" t="n" s="5">
-        <v>13.0</v>
-      </c>
-      <c r="C14" t="n" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D14" t="s" s="5">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s" s="5">
+      <c r="E13" t="s" s="43">
         <v>43</v>
       </c>
+      <c r="F13" s="43"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
